--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7314F89-ACE8-4D13-B333-5E83B1D95086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179E712-7FC9-45A7-B1FC-063F36A4F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{7885A686-EE57-435C-962E-A7EF6652A76F}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{7EE1BC8C-D313-44B5-9E71-A1F7EFC04D97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA58DE3-9CC5-4ACA-8D4B-D2A7EFE6F0FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667CAB4C-75E4-4F3B-AF51-3A27C6367575}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/AngVel/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\AngVel\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179E712-7FC9-45A7-B1FC-063F36A4F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D60F17-E0D2-4E8A-82E4-F24921C0725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{7EE1BC8C-D313-44B5-9E71-A1F7EFC04D97}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{1918AD92-1842-4C40-979D-56E04816F110}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667CAB4C-75E4-4F3B-AF51-3A27C6367575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5215905-E5A5-409E-8F53-DCB680238041}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.63092214753756071</v>
+        <v>7.1916073052825311E-2</v>
       </c>
     </row>
   </sheetData>
